--- a/public/templates/策略用户导入模版.xlsx
+++ b/public/templates/策略用户导入模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowHeight="20040"/>
+    <workbookView windowHeight="16960"/>
   </bookViews>
   <sheets>
     <sheet name="策略用户" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>moduleCode</t>
   </si>
@@ -62,6 +62,39 @@
   </si>
   <si>
     <t>人事状态</t>
+  </si>
+  <si>
+    <t>人员类别请填入对应编码</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>单位负责人</t>
+  </si>
+  <si>
+    <t>officer</t>
+  </si>
+  <si>
+    <t>模块对接人</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>经营策略管理组</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>模块负责人</t>
+  </si>
+  <si>
+    <t>leader</t>
   </si>
 </sst>
 </file>
@@ -69,12 +102,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +116,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF172B4D"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -99,6 +145,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -127,19 +197,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,9 +213,61 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,76 +279,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -243,12 +289,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,31 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,145 +479,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC1C7D0"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFC1C7D0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC1C7D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC1C7D0"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +561,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -505,21 +587,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,154 +604,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1068,13 +1144,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelRow="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9.64285714285714" defaultRowHeight="17.6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="25" style="1" customWidth="1"/>
     <col min="2" max="3" width="25" customWidth="1"/>
@@ -1134,7 +1210,68 @@
         <v>15</v>
       </c>
     </row>
+    <row r="23" ht="18.35" spans="3:4">
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" ht="18.35" spans="3:7">
+      <c r="C24" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" ht="18.35" spans="3:7">
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" ht="18.35" spans="3:7">
+      <c r="C26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" ht="18.35" spans="3:7">
+      <c r="C27" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" ht="18.35" spans="3:4">
+      <c r="C28" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C23:D23"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
